--- a/キャリアデザイン_C班/履歴書/14_堀合 稀_履歴書(修正).xlsx
+++ b/キャリアデザイン_C班/履歴書/14_堀合 稀_履歴書(修正).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\047_user\キャリアデザイン\00_履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -271,72 +271,58 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>社会づくりへ貢献する」という経営理念に基き、自分も制作にあたっては、</t>
-    <rPh sb="14" eb="16">
-      <t>ケイエイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リネン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゲームの土台となる部分の構築が好きで、周囲とも共有できるように</t>
-    <rPh sb="4" eb="6">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウチク</t>
+    <t>自身の成長、ひいては貴社の発展への貢献に努めて参ります。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>共有にも努めて参りました。貴社への入社後もこの姿勢を維持・向上していき、</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>スタッフとしても選ばれ、先輩方や高校生とも交流したりと、知識や感動の</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　現在は学校主催のイベントを積極的に利用し、オープンキャンパスの</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プログラムの構築が好きで、周囲とも共有できるようにまめにコメントを入れるなど</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>職に就きたいと考えております。私も制作にあたっては、ゲームの土台となる</t>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>自身の成長、ひいては貴社の発展への貢献に努めて参ります。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>共有にも努めて参りました。貴社への入社後もこの姿勢を維持・向上していき、</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>スタッフとしても選ばれ、先輩方や高校生とも交流したりと、知識や感動の</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>現在は学校主催のイベントを積極的に利用し、オープンキャンパスの</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>今回貴社、「株式会社ハ．ン．ド．」への就職を志望いたしました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>まめにコメントを入れるなど丁寧にソースコードづくりを心がけており、</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>　私はユーザーに楽しんでいただける、自分が開発に携わった、ゲームを開発できる</t>
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>丁寧なソースコードづくりを心がけております。また、貴社の「デジタルコンテンツを通じて、</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>感性豊かな社会づくりへ貢献する」という経営理念に基いて務めていきたいと</t>
+    <rPh sb="27" eb="28">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>考え、今回貴社への就職を志望いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　私はユーザーに楽しんでいただける、自分が開発に携わったゲームを開発できる</t>
     <rPh sb="1" eb="2">
       <t>ワタシ</t>
     </rPh>
@@ -348,22 +334,6 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>タズサ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>職に就きたいと考えております。貴社の「デジタルコンテンツを通じて、感性豊かな</t>
-    <rPh sb="2" eb="3">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1384,6 +1354,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1802,9 +1775,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2203,22 +2173,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -2231,134 +2201,134 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="P5" s="28"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="P6" s="28"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="P7" s="28"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="49">
         <v>2</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="49">
         <v>22</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="55">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="56">
         <v>26</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="57"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2367,82 +2337,82 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="75"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="76"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="74" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2451,58 +2421,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="80" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="82"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="76"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="89"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2512,238 +2482,238 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2752,42 +2722,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="105"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -2796,22 +2766,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="96"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
@@ -2820,22 +2790,22 @@
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -2904,7 +2874,7 @@
   <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:L23"/>
+      <selection activeCell="B22" sqref="B22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2928,122 +2898,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="110"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="110"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="110"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="110"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="111"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="110"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="110"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="111"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3059,131 +3029,131 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="115"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
     </row>
     <row r="17" spans="2:15" ht="32.1" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
     </row>
     <row r="19" spans="2:15" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="130"/>
     </row>
     <row r="20" spans="2:15" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3199,174 +3169,174 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="137" t="s">
+      <c r="G21" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
     </row>
     <row r="22" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="133"/>
+    </row>
+    <row r="23" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B23" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+    </row>
+    <row r="24" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+    </row>
+    <row r="25" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="114"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B26" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="114"/>
+    </row>
+    <row r="27" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B27" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-    </row>
-    <row r="23" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
-    </row>
-    <row r="24" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="111" t="s">
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="114"/>
+    </row>
+    <row r="28" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124"/>
+    </row>
+    <row r="29" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B29" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="124"/>
+    </row>
+    <row r="30" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B30" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="114"/>
+    </row>
+    <row r="31" spans="2:15" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="113"/>
-    </row>
-    <row r="25" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113"/>
-      <c r="O25" s="139"/>
-    </row>
-    <row r="26" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B26" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
-    </row>
-    <row r="27" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B27" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="113"/>
-    </row>
-    <row r="28" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123"/>
-    </row>
-    <row r="29" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B29" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
-    </row>
-    <row r="30" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B30" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
-    </row>
-    <row r="31" spans="2:15" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/キャリアデザイン_C班/履歴書/14_堀合 稀_履歴書(修正).xlsx
+++ b/キャリアデザイン_C班/履歴書/14_堀合 稀_履歴書(修正).xlsx
@@ -279,18 +279,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>スタッフとしても選ばれ、先輩方や高校生とも交流したりと、知識や感動の</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>　現在は学校主催のイベントを積極的に利用し、オープンキャンパスの</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プログラムの構築が好きで、周囲とも共有できるようにまめにコメントを入れるなど</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>職に就きたいと考えております。私も制作にあたっては、ゲームの土台となる</t>
     <rPh sb="2" eb="3">
       <t>ツ</t>
@@ -304,24 +292,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>丁寧なソースコードづくりを心がけております。また、貴社の「デジタルコンテンツを通じて、</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>感性豊かな社会づくりへ貢献する」という経営理念に基いて務めていきたいと</t>
-    <rPh sb="27" eb="28">
-      <t>ツト</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>考え、今回貴社への就職を志望いたしました。</t>
-    <rPh sb="0" eb="1">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>　私はユーザーに楽しんでいただける、自分が開発に携わったゲームを開発できる</t>
     <rPh sb="1" eb="2">
       <t>ワタシ</t>
@@ -334,6 +304,42 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>タズサ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>基いて務めていきたいと考え、今回貴社への就職を志望いたしました。</t>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「デジタルコンテンツを通じて、感性豊かな社会づくりへ貢献する」という経営理念に</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プログラムの構築が好きで、周囲とも共有できるようにまめにコメントを</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入れるなどして丁寧なソースコードづくりを心がけております。また、貴社の</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選ばれた際にも、先輩方や高校生とも積極的に交流したりと、知識や感動の</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　現在は学校主催のイベントに参加し、オープンキャンパススタッフとして</t>
+    <rPh sb="14" eb="16">
+      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2873,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:L22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3189,7 +3195,7 @@
     </row>
     <row r="22" spans="2:15" ht="26.1" customHeight="1">
       <c r="B22" s="131" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" s="132"/>
       <c r="D22" s="132"/>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="23" spans="2:15" ht="26.1" customHeight="1">
       <c r="B23" s="112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="113"/>
       <c r="D23" s="113"/>
@@ -3219,7 +3225,7 @@
     </row>
     <row r="24" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B24" s="112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="113"/>
       <c r="D24" s="113"/>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="25" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B25" s="112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="113"/>
       <c r="D25" s="113"/>
@@ -3250,7 +3256,7 @@
     </row>
     <row r="26" spans="2:15" ht="26.1" customHeight="1">
       <c r="B26" s="112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="113"/>
       <c r="D26" s="113"/>
@@ -3265,7 +3271,7 @@
     </row>
     <row r="27" spans="2:15" ht="26.1" customHeight="1">
       <c r="B27" s="112" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" s="113"/>
       <c r="D27" s="113"/>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="28" spans="2:15" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B28" s="122" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" s="123"/>
       <c r="D28" s="123"/>
@@ -3295,7 +3301,7 @@
     </row>
     <row r="29" spans="2:15" ht="26.1" customHeight="1">
       <c r="B29" s="122" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="123"/>
       <c r="D29" s="123"/>
